--- a/h2integrate/converters/ammonia/Ammonia cost breakdown-ANL source.xlsx
+++ b/h2integrate/converters/ammonia/Ammonia cost breakdown-ANL source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmartin4\Documents\Code\jmartin4nrel\H2Integrate\h2integrate\converters\ammonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F9F96A-D364-4985-8B2A-BC66089FC2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D16EBF-1638-4AA7-95CD-13C9B906B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2C01D3A-6DAE-45C2-89C9-0ADC6AC6A4F1}"/>
+    <workbookView xWindow="-28680" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{E2C01D3A-6DAE-45C2-89C9-0ADC6AC6A4F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Startup cost" sheetId="3" r:id="rId1"/>
@@ -602,10 +602,10 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="0.000000000"/>
-    <numFmt numFmtId="193" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -677,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -713,13 +713,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6127,10 +6125,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6430,27 +6424,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A04EE77-1185-46E2-997D-8C49B3730327}">
   <dimension ref="A1:AP87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="12" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6461,7 +6455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6493,7 +6487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6525,7 +6519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
@@ -6557,7 +6551,7 @@
         <v>10804945.054945055</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -6603,12 +6597,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:I7" si="2">C4*365*C2</f>
+        <f t="shared" ref="C6:I6" si="2">C4*365*C2</f>
         <v>21659340.659340661</v>
       </c>
       <c r="D6" s="2">
@@ -6649,12 +6643,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="12">
-        <f t="shared" ref="C7:I7" si="3">C4/24</f>
+        <f t="shared" ref="C7:E7" si="3">C4/24</f>
         <v>2747.2527472527472</v>
       </c>
       <c r="D7" s="12">
@@ -6681,12 +6675,10 @@
         <f t="shared" si="4"/>
         <v>450206.04395604396</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="33"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -6695,7 +6687,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -6727,7 +6719,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -6753,7 +6745,7 @@
         <v>0.197284403</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
@@ -6786,10 +6778,10 @@
         <v>3382188584.368814</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6815,7 +6807,7 @@
         <v>6.9825185425906086E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -6841,7 +6833,7 @@
         <v>0.53064524300000004</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -6874,7 +6866,7 @@
         <v>131514703.34197405</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -6900,7 +6892,7 @@
         <v>1.1334993860117458E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -6926,7 +6918,7 @@
         <v>4.9236823999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -6952,7 +6944,7 @@
         <v>23.199773409999999</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -6978,7 +6970,7 @@
         <v>9.1295354067341011E-5</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
@@ -7011,7 +7003,7 @@
         <v>7537602.1974566597</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -7044,7 +7036,7 @@
         <v>139052305.53943071</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -7053,7 +7045,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -7079,7 +7071,7 @@
         <v>2.8521089161772557E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -7105,7 +7097,7 @@
         <v>0.29405077250144951</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
@@ -7138,7 +7130,7 @@
         <v>29767774.536315519</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -7147,7 +7139,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
@@ -7173,7 +7165,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
@@ -7206,7 +7198,7 @@
         <v>81448331.447951332</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
@@ -7239,7 +7231,7 @@
         <v>67467262.365219519</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
@@ -7272,7 +7264,7 @@
         <v>25582682.021261472</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
@@ -7305,7 +7297,7 @@
         <v>17368039.433087386</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>32</v>
       </c>
@@ -7338,7 +7330,7 @@
         <v>191866315.26751971</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>33</v>
@@ -7372,7 +7364,7 @@
         <v>115666885.91249469</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -7406,7 +7398,7 @@
         <v>316580562.94504154</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -7415,7 +7407,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
@@ -7441,7 +7433,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>36</v>
       </c>
@@ -7474,7 +7466,7 @@
         <v>10130961.690856678</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
@@ -7507,7 +7499,7 @@
         <v>2026192.3381713359</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
@@ -7540,7 +7532,7 @@
         <v>6331611.2589008305</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
@@ -7573,7 +7565,7 @@
         <v>3471767.9294960191</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>40</v>
       </c>
@@ -7606,16 +7598,16 @@
         <v>21960533.217424862</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>42</v>
       </c>
@@ -7648,7 +7640,7 @@
         <v>1.0317103469196081</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
@@ -7681,7 +7673,7 @@
         <v>2.4780505719117239E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
@@ -7714,7 +7706,7 @@
         <v>3.4796590825965697E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
@@ -7747,7 +7739,7 @@
         <v>6.3120238991970206E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
@@ -7780,7 +7772,7 @@
         <v>0.9721282705097567</v>
       </c>
     </row>
-    <row r="49" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
@@ -7813,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
@@ -7846,7 +7838,7 @@
         <v>-8.3866483006019479E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
@@ -7933,7 +7925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:42" x14ac:dyDescent="0.3">
       <c r="F52" s="14"/>
       <c r="V52">
         <v>12</v>
@@ -7997,7 +7989,7 @@
         <v>4.511718405528562</v>
       </c>
     </row>
-    <row r="53" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
@@ -8078,7 +8070,7 @@
         <v>4.5294973525244249</v>
       </c>
     </row>
-    <row r="54" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>51</v>
       </c>
@@ -8162,7 +8154,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:42" x14ac:dyDescent="0.3">
       <c r="F55" s="14"/>
       <c r="X55">
         <v>180</v>
@@ -8201,7 +8193,7 @@
         <v>0.49373125669740037</v>
       </c>
     </row>
-    <row r="56" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
@@ -8234,7 +8226,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="57" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
@@ -8321,7 +8313,7 @@
         <v>13.386568072909659</v>
       </c>
     </row>
-    <row r="58" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
@@ -8402,7 +8394,7 @@
         <v>13.655829607830775</v>
       </c>
     </row>
-    <row r="59" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
@@ -8486,7 +8478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>44</v>
       </c>
@@ -8548,7 +8540,7 @@
         <v>1.3474410024821639</v>
       </c>
     </row>
-    <row r="61" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>56</v>
       </c>
@@ -8581,7 +8573,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>57</v>
       </c>
@@ -8617,7 +8609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>47</v>
       </c>
@@ -8658,7 +8650,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="2:42" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:42" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>58</v>
       </c>
@@ -8697,7 +8689,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>59</v>
       </c>
@@ -8725,7 +8717,7 @@
       <c r="AN65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AO65" s="37">
+      <c r="AO65" s="35">
         <f>AO64/3600*1000</f>
         <v>0.8299955861796311</v>
       </c>
@@ -8733,7 +8725,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>60</v>
       </c>
@@ -8759,7 +8751,7 @@
         <v>4.9530104489364513E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>61</v>
       </c>
@@ -8785,11 +8777,11 @@
         <v>9.4704849535195656E-5</v>
       </c>
     </row>
-    <row r="69" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E69" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="33">
         <f>F7</f>
         <v>52776.6</v>
       </c>
@@ -8797,11 +8789,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E70" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="37">
         <f>F19</f>
         <v>9.1295354067341011E-5</v>
       </c>
@@ -8809,7 +8801,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E71" s="30" t="s">
         <v>136</v>
       </c>
@@ -8820,7 +8812,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E72" s="30" t="s">
         <v>138</v>
       </c>
@@ -8829,11 +8821,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E74" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="36">
         <f>F14</f>
         <v>0.53064524300000004</v>
       </c>
@@ -8841,16 +8833,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E75" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F75" s="36">
+      <c r="F75" s="34">
         <f>AO65</f>
         <v>0.8299955861796311</v>
       </c>
     </row>
-    <row r="76" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E76" s="30" t="s">
         <v>147</v>
       </c>
@@ -8858,7 +8850,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E77" s="30" t="s">
         <v>148</v>
       </c>
@@ -8866,7 +8858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E78" s="30" t="s">
         <v>149</v>
       </c>
@@ -8874,7 +8866,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E79" s="30" t="s">
         <v>150</v>
       </c>
@@ -8882,7 +8874,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E80" s="30" t="s">
         <v>142</v>
       </c>
@@ -8890,7 +8882,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E81" s="30" t="s">
         <v>151</v>
       </c>
@@ -8898,7 +8890,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E82" s="30" t="s">
         <v>152</v>
       </c>
@@ -8906,7 +8898,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E83" s="30" t="s">
         <v>153</v>
       </c>
@@ -8914,7 +8906,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C84" s="5"/>
       <c r="E84" s="30" t="s">
         <v>154</v>
@@ -8923,7 +8915,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C85" s="28"/>
       <c r="E85" s="30" t="s">
         <v>155</v>
@@ -8932,7 +8924,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E86" s="30" t="s">
         <v>156</v>
       </c>
@@ -8940,7 +8932,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E87" s="30" t="s">
         <v>143</v>
       </c>
@@ -8963,23 +8955,23 @@
       <selection activeCell="B4" sqref="B4:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
@@ -8987,7 +8979,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
@@ -8995,7 +8987,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
@@ -9003,7 +8995,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
@@ -9011,7 +9003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
@@ -9019,7 +9011,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
@@ -9027,7 +9019,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
@@ -9035,13 +9027,13 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
@@ -9049,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
@@ -9057,7 +9049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
@@ -9065,7 +9057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
@@ -9073,7 +9065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
@@ -9081,7 +9073,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
@@ -9089,7 +9081,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
@@ -9097,7 +9089,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -9105,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
@@ -9113,7 +9105,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>82</v>
       </c>
@@ -9121,7 +9113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
@@ -9129,7 +9121,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
@@ -9137,7 +9129,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>85</v>
       </c>
@@ -9145,7 +9137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
@@ -9153,7 +9145,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
@@ -9161,7 +9153,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
@@ -9169,7 +9161,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>89</v>
       </c>
@@ -9177,7 +9169,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -9185,7 +9177,7 @@
         <v>0.25739999999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
@@ -9200,21 +9192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B460CF5A370D824381F1DF8272AA894D" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1f8eafa6691a62ef0b2d4f01f9dfc89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c568c42-04c3-4624-b700-87bc64b8e7e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b2cfe064fff1e24a8e2ac692a0fa436" ns2:_="">
     <xsd:import namespace="5c568c42-04c3-4624-b700-87bc64b8e7e5"/>
@@ -9352,24 +9329,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536806C7-C026-4EC2-9A79-F4BDE3C8E19D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88C8CE1C-2682-4461-9400-83B1409FE3D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84A1221C-C52B-4599-9BDB-5DDB5E1F49CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9387,6 +9362,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88C8CE1C-2682-4461-9400-83B1409FE3D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536806C7-C026-4EC2-9A79-F4BDE3C8E19D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95965d95-ecc0-4720-b759-1f33c42ed7da}" enabled="1" method="Standard" siteId="{a0f29d7e-28cd-4f54-8442-7885aee7c080}" removed="0"/>
